--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H2">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I2">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J2">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.05838299811536</v>
+        <v>1.138751333333333</v>
       </c>
       <c r="N2">
-        <v>1.05838299811536</v>
+        <v>3.416253999999999</v>
       </c>
       <c r="O2">
-        <v>0.05297308308974456</v>
+        <v>0.03958856402477573</v>
       </c>
       <c r="P2">
-        <v>0.05297308308974456</v>
+        <v>0.04010995698151244</v>
       </c>
       <c r="Q2">
-        <v>8.480296831732534</v>
+        <v>14.14399834499422</v>
       </c>
       <c r="R2">
-        <v>8.480296831732534</v>
+        <v>127.295985104948</v>
       </c>
       <c r="S2">
-        <v>0.004231128761589267</v>
+        <v>0.003661272978266956</v>
       </c>
       <c r="T2">
-        <v>0.004231128761589267</v>
+        <v>0.003999031068458073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H3">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I3">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J3">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.98364687251626</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N3">
-        <v>0.98364687251626</v>
+        <v>2.953636</v>
       </c>
       <c r="O3">
-        <v>0.0492324683990169</v>
+        <v>0.03422760950792373</v>
       </c>
       <c r="P3">
-        <v>0.0492324683990169</v>
+        <v>0.03467839712710076</v>
       </c>
       <c r="Q3">
-        <v>7.881473409339526</v>
+        <v>12.22866411447022</v>
       </c>
       <c r="R3">
-        <v>7.881473409339526</v>
+        <v>110.057977030232</v>
       </c>
       <c r="S3">
-        <v>0.003932353959730977</v>
+        <v>0.00316547530553539</v>
       </c>
       <c r="T3">
-        <v>0.003932353959730977</v>
+        <v>0.003457495294236385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H4">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I4">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J4">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.77343499123581</v>
+        <v>11.038733</v>
       </c>
       <c r="N4">
-        <v>6.77343499123581</v>
+        <v>33.116199</v>
       </c>
       <c r="O4">
-        <v>0.3390169109222678</v>
+        <v>0.3837603305751604</v>
       </c>
       <c r="P4">
-        <v>0.3390169109222678</v>
+        <v>0.3888145662708937</v>
       </c>
       <c r="Q4">
-        <v>54.27216744638456</v>
+        <v>137.1079152336153</v>
       </c>
       <c r="R4">
-        <v>54.27216744638456</v>
+        <v>1233.971237102538</v>
       </c>
       <c r="S4">
-        <v>0.02707835977827113</v>
+        <v>0.0354913436008011</v>
       </c>
       <c r="T4">
-        <v>0.02707835977827113</v>
+        <v>0.03876547489450146</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H5">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I5">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J5">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.088064927354</v>
+        <v>14.480881</v>
       </c>
       <c r="N5">
-        <v>10.088064927354</v>
+        <v>43.442643</v>
       </c>
       <c r="O5">
-        <v>0.5049173149635329</v>
+        <v>0.5034262246925947</v>
       </c>
       <c r="P5">
-        <v>0.5049173149635329</v>
+        <v>0.510056495182502</v>
       </c>
       <c r="Q5">
-        <v>80.83064939071103</v>
+        <v>179.8615298201407</v>
       </c>
       <c r="R5">
-        <v>80.83064939071103</v>
+        <v>1618.753768381266</v>
       </c>
       <c r="S5">
-        <v>0.04032935311594552</v>
+        <v>0.04655841600782557</v>
       </c>
       <c r="T5">
-        <v>0.04032935311594552</v>
+        <v>0.05085350183356761</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H6">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I6">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J6">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.07610772446257</v>
+        <v>1.121743</v>
       </c>
       <c r="N6">
-        <v>1.07610772446257</v>
+        <v>2.243486</v>
       </c>
       <c r="O6">
-        <v>0.05386022262543786</v>
+        <v>0.03899727119954546</v>
       </c>
       <c r="P6">
-        <v>0.05386022262543786</v>
+        <v>0.02634058443799127</v>
       </c>
       <c r="Q6">
-        <v>8.622316252824168</v>
+        <v>13.93274428848867</v>
       </c>
       <c r="R6">
-        <v>8.622316252824168</v>
+        <v>83.596465730932</v>
       </c>
       <c r="S6">
-        <v>0.004301987420101849</v>
+        <v>0.00360658838698186</v>
       </c>
       <c r="T6">
-        <v>0.004301987420101849</v>
+        <v>0.002626201159413419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>53.5342388188646</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H7">
-        <v>53.5342388188646</v>
+        <v>172.32992</v>
       </c>
       <c r="I7">
-        <v>0.533659720844985</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J7">
-        <v>0.533659720844985</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.05838299811536</v>
+        <v>1.138751333333333</v>
       </c>
       <c r="N7">
-        <v>1.05838299811536</v>
+        <v>3.416253999999999</v>
       </c>
       <c r="O7">
-        <v>0.05297308308974456</v>
+        <v>0.03958856402477573</v>
       </c>
       <c r="P7">
-        <v>0.05297308308974456</v>
+        <v>0.04010995698151244</v>
       </c>
       <c r="Q7">
-        <v>56.65972818293361</v>
+        <v>65.41364205774222</v>
       </c>
       <c r="R7">
-        <v>56.65972818293361</v>
+        <v>588.72277851968</v>
       </c>
       <c r="S7">
-        <v>0.02826960073397128</v>
+        <v>0.01693277913602134</v>
       </c>
       <c r="T7">
-        <v>0.02826960073397128</v>
+        <v>0.01849485417837934</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>53.5342388188646</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H8">
-        <v>53.5342388188646</v>
+        <v>172.32992</v>
       </c>
       <c r="I8">
-        <v>0.533659720844985</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J8">
-        <v>0.533659720844985</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.98364687251626</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N8">
-        <v>0.98364687251626</v>
+        <v>2.953636</v>
       </c>
       <c r="O8">
-        <v>0.0492324683990169</v>
+        <v>0.03422760950792373</v>
       </c>
       <c r="P8">
-        <v>0.0492324683990169</v>
+        <v>0.03467839712710076</v>
       </c>
       <c r="Q8">
-        <v>52.65878658671473</v>
+        <v>56.55553950990222</v>
       </c>
       <c r="R8">
-        <v>52.65878658671473</v>
+        <v>508.99985558912</v>
       </c>
       <c r="S8">
-        <v>0.0262733853423289</v>
+        <v>0.01463979728562382</v>
       </c>
       <c r="T8">
-        <v>0.0262733853423289</v>
+        <v>0.01599034120882453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>53.5342388188646</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H9">
-        <v>53.5342388188646</v>
+        <v>172.32992</v>
       </c>
       <c r="I9">
-        <v>0.533659720844985</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J9">
-        <v>0.533659720844985</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.77343499123581</v>
+        <v>11.038733</v>
       </c>
       <c r="N9">
-        <v>6.77343499123581</v>
+        <v>33.116199</v>
       </c>
       <c r="O9">
-        <v>0.3390169109222678</v>
+        <v>0.3837603305751604</v>
       </c>
       <c r="P9">
-        <v>0.3390169109222678</v>
+        <v>0.3888145662708937</v>
       </c>
       <c r="Q9">
-        <v>362.6106864448719</v>
+        <v>634.1013249304534</v>
       </c>
       <c r="R9">
-        <v>362.6106864448719</v>
+        <v>5706.911924374081</v>
       </c>
       <c r="S9">
-        <v>0.1809196700445066</v>
+        <v>0.1641415666082003</v>
       </c>
       <c r="T9">
-        <v>0.1809196700445066</v>
+        <v>0.1792838797838778</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>53.5342388188646</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H10">
-        <v>53.5342388188646</v>
+        <v>172.32992</v>
       </c>
       <c r="I10">
-        <v>0.533659720844985</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J10">
-        <v>0.533659720844985</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.088064927354</v>
+        <v>14.480881</v>
       </c>
       <c r="N10">
-        <v>10.088064927354</v>
+        <v>43.442643</v>
       </c>
       <c r="O10">
-        <v>0.5049173149635329</v>
+        <v>0.5034262246925947</v>
       </c>
       <c r="P10">
-        <v>0.5049173149635329</v>
+        <v>0.510056495182502</v>
       </c>
       <c r="Q10">
-        <v>540.0568770411811</v>
+        <v>831.8296880865068</v>
       </c>
       <c r="R10">
-        <v>540.0568770411811</v>
+        <v>7486.467192778561</v>
       </c>
       <c r="S10">
-        <v>0.2694540333532383</v>
+        <v>0.2153249374911887</v>
       </c>
       <c r="T10">
-        <v>0.2694540333532383</v>
+        <v>0.2351889957270133</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>53.5342388188646</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H11">
-        <v>53.5342388188646</v>
+        <v>172.32992</v>
       </c>
       <c r="I11">
-        <v>0.533659720844985</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J11">
-        <v>0.533659720844985</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.07610772446257</v>
+        <v>1.121743</v>
       </c>
       <c r="N11">
-        <v>1.07610772446257</v>
+        <v>2.243486</v>
       </c>
       <c r="O11">
-        <v>0.05386022262543786</v>
+        <v>0.03899727119954546</v>
       </c>
       <c r="P11">
-        <v>0.05386022262543786</v>
+        <v>0.02634058443799127</v>
       </c>
       <c r="Q11">
-        <v>57.60860791620417</v>
+        <v>64.43662715018667</v>
       </c>
       <c r="R11">
-        <v>57.60860791620417</v>
+        <v>386.61976290112</v>
       </c>
       <c r="S11">
-        <v>0.02874303137093992</v>
+        <v>0.01667987198818763</v>
       </c>
       <c r="T11">
-        <v>0.02874303137093992</v>
+        <v>0.01214574397021871</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.53219526823085</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H12">
-        <v>5.53219526823085</v>
+        <v>49.877294</v>
       </c>
       <c r="I12">
-        <v>0.05514806687535596</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J12">
-        <v>0.05514806687535596</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.05838299811536</v>
+        <v>1.138751333333333</v>
       </c>
       <c r="N12">
-        <v>1.05838299811536</v>
+        <v>3.416253999999999</v>
       </c>
       <c r="O12">
-        <v>0.05297308308974456</v>
+        <v>0.03958856402477573</v>
       </c>
       <c r="P12">
-        <v>0.05297308308974456</v>
+        <v>0.04010995698151244</v>
       </c>
       <c r="Q12">
-        <v>5.855181414149776</v>
+        <v>18.93261168185289</v>
       </c>
       <c r="R12">
-        <v>5.855181414149776</v>
+        <v>170.393505136676</v>
       </c>
       <c r="S12">
-        <v>0.002921363128827021</v>
+        <v>0.00490083906035819</v>
       </c>
       <c r="T12">
-        <v>0.002921363128827021</v>
+        <v>0.005352949037184922</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.53219526823085</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H13">
-        <v>5.53219526823085</v>
+        <v>49.877294</v>
       </c>
       <c r="I13">
-        <v>0.05514806687535596</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J13">
-        <v>0.05514806687535596</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.98364687251626</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N13">
-        <v>0.98364687251626</v>
+        <v>2.953636</v>
       </c>
       <c r="O13">
-        <v>0.0492324683990169</v>
+        <v>0.03422760950792373</v>
       </c>
       <c r="P13">
-        <v>0.0492324683990169</v>
+        <v>0.03467839712710076</v>
       </c>
       <c r="Q13">
-        <v>5.441726573744528</v>
+        <v>16.36881901566489</v>
       </c>
       <c r="R13">
-        <v>5.441726573744528</v>
+        <v>147.319371140984</v>
       </c>
       <c r="S13">
-        <v>0.002715075459707833</v>
+        <v>0.004237183382406614</v>
       </c>
       <c r="T13">
-        <v>0.002715075459707833</v>
+        <v>0.004628070097362411</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.53219526823085</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H14">
-        <v>5.53219526823085</v>
+        <v>49.877294</v>
       </c>
       <c r="I14">
-        <v>0.05514806687535596</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J14">
-        <v>0.05514806687535596</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.77343499123581</v>
+        <v>11.038733</v>
       </c>
       <c r="N14">
-        <v>6.77343499123581</v>
+        <v>33.116199</v>
       </c>
       <c r="O14">
-        <v>0.3390169109222678</v>
+        <v>0.3837603305751604</v>
       </c>
       <c r="P14">
-        <v>0.3390169109222678</v>
+        <v>0.3888145662708937</v>
       </c>
       <c r="Q14">
-        <v>37.47196500818401</v>
+        <v>183.5273770761673</v>
       </c>
       <c r="R14">
-        <v>37.47196500818401</v>
+        <v>1651.746393685506</v>
       </c>
       <c r="S14">
-        <v>0.01869612727541782</v>
+        <v>0.04750734623063591</v>
       </c>
       <c r="T14">
-        <v>0.01869612727541782</v>
+        <v>0.05188997233586096</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.53219526823085</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H15">
-        <v>5.53219526823085</v>
+        <v>49.877294</v>
       </c>
       <c r="I15">
-        <v>0.05514806687535596</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J15">
-        <v>0.05514806687535596</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.088064927354</v>
+        <v>14.480881</v>
       </c>
       <c r="N15">
-        <v>10.088064927354</v>
+        <v>43.442643</v>
       </c>
       <c r="O15">
-        <v>0.5049173149635329</v>
+        <v>0.5034262246925947</v>
       </c>
       <c r="P15">
-        <v>0.5049173149635329</v>
+        <v>0.510056495182502</v>
       </c>
       <c r="Q15">
-        <v>55.8091450567134</v>
+        <v>240.7557196720047</v>
       </c>
       <c r="R15">
-        <v>55.8091450567134</v>
+        <v>2166.801477048042</v>
       </c>
       <c r="S15">
-        <v>0.02784521385213408</v>
+        <v>0.06232130330461269</v>
       </c>
       <c r="T15">
-        <v>0.02784521385213408</v>
+        <v>0.06807053984265174</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.53219526823085</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H16">
-        <v>5.53219526823085</v>
+        <v>49.877294</v>
       </c>
       <c r="I16">
-        <v>0.05514806687535596</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J16">
-        <v>0.05514806687535596</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.07610772446257</v>
+        <v>1.121743</v>
       </c>
       <c r="N16">
-        <v>1.07610772446257</v>
+        <v>2.243486</v>
       </c>
       <c r="O16">
-        <v>0.05386022262543786</v>
+        <v>0.03899727119954546</v>
       </c>
       <c r="P16">
-        <v>0.05386022262543786</v>
+        <v>0.02634058443799127</v>
       </c>
       <c r="Q16">
-        <v>5.953238061378498</v>
+        <v>18.64983513448066</v>
       </c>
       <c r="R16">
-        <v>5.953238061378498</v>
+        <v>111.899010806884</v>
       </c>
       <c r="S16">
-        <v>0.002970287159269207</v>
+        <v>0.004827640371661513</v>
       </c>
       <c r="T16">
-        <v>0.002970287159269207</v>
+        <v>0.003515331770892285</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.45288857161591</v>
+        <v>18.64071333333333</v>
       </c>
       <c r="H17">
-        <v>4.45288857161591</v>
+        <v>55.92214000000001</v>
       </c>
       <c r="I17">
-        <v>0.04438892425691857</v>
+        <v>0.1387974830074432</v>
       </c>
       <c r="J17">
-        <v>0.04438892425691857</v>
+        <v>0.149631080253504</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.05838299811536</v>
+        <v>1.138751333333333</v>
       </c>
       <c r="N17">
-        <v>1.05838299811536</v>
+        <v>3.416253999999999</v>
       </c>
       <c r="O17">
-        <v>0.05297308308974456</v>
+        <v>0.03958856402477573</v>
       </c>
       <c r="P17">
-        <v>0.05297308308974456</v>
+        <v>0.04010995698151244</v>
       </c>
       <c r="Q17">
-        <v>4.71286155670047</v>
+        <v>21.22713716261778</v>
       </c>
       <c r="R17">
-        <v>4.71286155670047</v>
+        <v>191.04423446356</v>
       </c>
       <c r="S17">
-        <v>0.002351418172926125</v>
+        <v>0.005494793042517888</v>
       </c>
       <c r="T17">
-        <v>0.002351418172926125</v>
+        <v>0.006001696192065279</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.45288857161591</v>
+        <v>18.64071333333333</v>
       </c>
       <c r="H18">
-        <v>4.45288857161591</v>
+        <v>55.92214000000001</v>
       </c>
       <c r="I18">
-        <v>0.04438892425691857</v>
+        <v>0.1387974830074432</v>
       </c>
       <c r="J18">
-        <v>0.04438892425691857</v>
+        <v>0.149631080253504</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.98364687251626</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N18">
-        <v>0.98364687251626</v>
+        <v>2.953636</v>
       </c>
       <c r="O18">
-        <v>0.0492324683990169</v>
+        <v>0.03422760950792373</v>
       </c>
       <c r="P18">
-        <v>0.0492324683990169</v>
+        <v>0.03467839712710076</v>
       </c>
       <c r="Q18">
-        <v>4.380069917133386</v>
+        <v>18.35262732233778</v>
       </c>
       <c r="R18">
-        <v>4.380069917133386</v>
+        <v>165.17364590104</v>
       </c>
       <c r="S18">
-        <v>0.002185376310745098</v>
+        <v>0.004750706049061446</v>
       </c>
       <c r="T18">
-        <v>0.002185376310745098</v>
+        <v>0.005188966023588096</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.45288857161591</v>
+        <v>18.64071333333333</v>
       </c>
       <c r="H19">
-        <v>4.45288857161591</v>
+        <v>55.92214000000001</v>
       </c>
       <c r="I19">
-        <v>0.04438892425691857</v>
+        <v>0.1387974830074432</v>
       </c>
       <c r="J19">
-        <v>0.04438892425691857</v>
+        <v>0.149631080253504</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.77343499123581</v>
+        <v>11.038733</v>
       </c>
       <c r="N19">
-        <v>6.77343499123581</v>
+        <v>33.116199</v>
       </c>
       <c r="O19">
-        <v>0.3390169109222678</v>
+        <v>0.3837603305751604</v>
       </c>
       <c r="P19">
-        <v>0.3390169109222678</v>
+        <v>0.3888145662708937</v>
       </c>
       <c r="Q19">
-        <v>30.16135126305725</v>
+        <v>205.7698574162067</v>
       </c>
       <c r="R19">
-        <v>30.16135126305725</v>
+        <v>1851.92871674586</v>
       </c>
       <c r="S19">
-        <v>0.01504859598074305</v>
+        <v>0.05326496796193662</v>
       </c>
       <c r="T19">
-        <v>0.01504859598074305</v>
+        <v>0.05817874356941143</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.45288857161591</v>
+        <v>18.64071333333333</v>
       </c>
       <c r="H20">
-        <v>4.45288857161591</v>
+        <v>55.92214000000001</v>
       </c>
       <c r="I20">
-        <v>0.04438892425691857</v>
+        <v>0.1387974830074432</v>
       </c>
       <c r="J20">
-        <v>0.04438892425691857</v>
+        <v>0.149631080253504</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.088064927354</v>
+        <v>14.480881</v>
       </c>
       <c r="N20">
-        <v>10.088064927354</v>
+        <v>43.442643</v>
       </c>
       <c r="O20">
-        <v>0.5049173149635329</v>
+        <v>0.5034262246925947</v>
       </c>
       <c r="P20">
-        <v>0.5049173149635329</v>
+        <v>0.510056495182502</v>
       </c>
       <c r="Q20">
-        <v>44.92102902473391</v>
+        <v>269.9339515351134</v>
       </c>
       <c r="R20">
-        <v>44.92102902473391</v>
+        <v>2429.40556381602</v>
       </c>
       <c r="S20">
-        <v>0.02241273644992296</v>
+        <v>0.06987429286727172</v>
       </c>
       <c r="T20">
-        <v>0.02241273644992296</v>
+        <v>0.07632030436447391</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.45288857161591</v>
+        <v>18.64071333333333</v>
       </c>
       <c r="H21">
-        <v>4.45288857161591</v>
+        <v>55.92214000000001</v>
       </c>
       <c r="I21">
-        <v>0.04438892425691857</v>
+        <v>0.1387974830074432</v>
       </c>
       <c r="J21">
-        <v>0.04438892425691857</v>
+        <v>0.149631080253504</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.07610772446257</v>
+        <v>1.121743</v>
       </c>
       <c r="N21">
-        <v>1.07610772446257</v>
+        <v>2.243486</v>
       </c>
       <c r="O21">
-        <v>0.05386022262543786</v>
+        <v>0.03899727119954546</v>
       </c>
       <c r="P21">
-        <v>0.05386022262543786</v>
+        <v>0.02634058443799127</v>
       </c>
       <c r="Q21">
-        <v>4.791787788086981</v>
+        <v>20.91008969667333</v>
       </c>
       <c r="R21">
-        <v>4.791787788086981</v>
+        <v>125.46053818004</v>
       </c>
       <c r="S21">
-        <v>0.002390797342581333</v>
+        <v>0.005412723086655567</v>
       </c>
       <c r="T21">
-        <v>0.002390797342581333</v>
+        <v>0.003941370103965269</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>28.7834816170495</v>
+        <v>29.1711175</v>
       </c>
       <c r="H22">
-        <v>28.7834816170495</v>
+        <v>58.342235</v>
       </c>
       <c r="I22">
-        <v>0.2869301049871016</v>
+        <v>0.2172061558542492</v>
       </c>
       <c r="J22">
-        <v>0.2869301049871016</v>
+        <v>0.156106537544053</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.05838299811536</v>
+        <v>1.138751333333333</v>
       </c>
       <c r="N22">
-        <v>1.05838299811536</v>
+        <v>3.416253999999999</v>
       </c>
       <c r="O22">
-        <v>0.05297308308974456</v>
+        <v>0.03958856402477573</v>
       </c>
       <c r="P22">
-        <v>0.05297308308974456</v>
+        <v>0.04010995698151244</v>
       </c>
       <c r="Q22">
-        <v>30.4639475700512</v>
+        <v>33.21864894794833</v>
       </c>
       <c r="R22">
-        <v>30.4639475700512</v>
+        <v>199.31189368769</v>
       </c>
       <c r="S22">
-        <v>0.01519957229243087</v>
+        <v>0.008598879807611358</v>
       </c>
       <c r="T22">
-        <v>0.01519957229243087</v>
+        <v>0.006261426505424822</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>28.7834816170495</v>
+        <v>29.1711175</v>
       </c>
       <c r="H23">
-        <v>28.7834816170495</v>
+        <v>58.342235</v>
       </c>
       <c r="I23">
-        <v>0.2869301049871016</v>
+        <v>0.2172061558542492</v>
       </c>
       <c r="J23">
-        <v>0.2869301049871016</v>
+        <v>0.156106537544053</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.98364687251626</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N23">
-        <v>0.98364687251626</v>
+        <v>2.953636</v>
       </c>
       <c r="O23">
-        <v>0.0492324683990169</v>
+        <v>0.03422760950792373</v>
       </c>
       <c r="P23">
-        <v>0.0492324683990169</v>
+        <v>0.03467839712710076</v>
       </c>
       <c r="Q23">
-        <v>28.31278167274001</v>
+        <v>28.72028760274333</v>
       </c>
       <c r="R23">
-        <v>28.31278167274001</v>
+        <v>172.32172561646</v>
       </c>
       <c r="S23">
-        <v>0.01412627732650408</v>
+        <v>0.007434447485296462</v>
       </c>
       <c r="T23">
-        <v>0.01412627732650408</v>
+        <v>0.005413524503089335</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>28.7834816170495</v>
+        <v>29.1711175</v>
       </c>
       <c r="H24">
-        <v>28.7834816170495</v>
+        <v>58.342235</v>
       </c>
       <c r="I24">
-        <v>0.2869301049871016</v>
+        <v>0.2172061558542492</v>
       </c>
       <c r="J24">
-        <v>0.2869301049871016</v>
+        <v>0.156106537544053</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.77343499123581</v>
+        <v>11.038733</v>
       </c>
       <c r="N24">
-        <v>6.77343499123581</v>
+        <v>33.116199</v>
       </c>
       <c r="O24">
-        <v>0.3390169109222678</v>
+        <v>0.3837603305751604</v>
       </c>
       <c r="P24">
-        <v>0.3390169109222678</v>
+        <v>0.3888145662708937</v>
       </c>
       <c r="Q24">
-        <v>194.9630415545158</v>
+        <v>322.0121773941275</v>
       </c>
       <c r="R24">
-        <v>194.9630415545158</v>
+        <v>1932.073064364765</v>
       </c>
       <c r="S24">
-        <v>0.0972741578433292</v>
+        <v>0.08335510617358646</v>
       </c>
       <c r="T24">
-        <v>0.0972741578433292</v>
+        <v>0.06069649568724195</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>28.7834816170495</v>
+        <v>29.1711175</v>
       </c>
       <c r="H25">
-        <v>28.7834816170495</v>
+        <v>58.342235</v>
       </c>
       <c r="I25">
-        <v>0.2869301049871016</v>
+        <v>0.2172061558542492</v>
       </c>
       <c r="J25">
-        <v>0.2869301049871016</v>
+        <v>0.156106537544053</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.088064927354</v>
+        <v>14.480881</v>
       </c>
       <c r="N25">
-        <v>10.088064927354</v>
+        <v>43.442643</v>
       </c>
       <c r="O25">
-        <v>0.5049173149635329</v>
+        <v>0.5034262246925947</v>
       </c>
       <c r="P25">
-        <v>0.5049173149635329</v>
+        <v>0.510056495182502</v>
       </c>
       <c r="Q25">
-        <v>290.3696313880957</v>
+        <v>422.4234811545176</v>
       </c>
       <c r="R25">
-        <v>290.3696313880957</v>
+        <v>2534.540886927105</v>
       </c>
       <c r="S25">
-        <v>0.1448759781922919</v>
+        <v>0.109347275021696</v>
       </c>
       <c r="T25">
-        <v>0.1448759781922919</v>
+        <v>0.07962315341479534</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>28.7834816170495</v>
+        <v>29.1711175</v>
       </c>
       <c r="H26">
-        <v>28.7834816170495</v>
+        <v>58.342235</v>
       </c>
       <c r="I26">
-        <v>0.2869301049871016</v>
+        <v>0.2172061558542492</v>
       </c>
       <c r="J26">
-        <v>0.2869301049871016</v>
+        <v>0.156106537544053</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.07610772446257</v>
+        <v>1.121743</v>
       </c>
       <c r="N26">
-        <v>1.07610772446257</v>
+        <v>2.243486</v>
       </c>
       <c r="O26">
-        <v>0.05386022262543786</v>
+        <v>0.03899727119954546</v>
       </c>
       <c r="P26">
-        <v>0.05386022262543786</v>
+        <v>0.02634058443799127</v>
       </c>
       <c r="Q26">
-        <v>30.97412690503335</v>
+        <v>32.7224968578025</v>
       </c>
       <c r="R26">
-        <v>30.97412690503335</v>
+        <v>130.88998743121</v>
       </c>
       <c r="S26">
-        <v>0.01545411933254555</v>
+        <v>0.008470447366058894</v>
       </c>
       <c r="T26">
-        <v>0.01545411933254555</v>
+        <v>0.004111937433501582</v>
       </c>
     </row>
   </sheetData>
